--- a/analyse.xlsx
+++ b/analyse.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Thierry\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyse-des-donn-es-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCDB51-9FAF-45B1-B394-D5075A2BBA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="absence_presence" sheetId="1" r:id="rId1"/>
     <sheet name="Age" sheetId="2" r:id="rId2"/>
     <sheet name="Nombre des grossesses" sheetId="3" r:id="rId3"/>
     <sheet name="imc" sheetId="4" r:id="rId4"/>
+    <sheet name="cm" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Fréquence</t>
   </si>
@@ -178,18 +178,47 @@
   </si>
   <si>
     <t>Obésité</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source : Al'aide du langage de programmation P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ython 3.11</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="###0.0"/>
     <numFmt numFmtId="166" formatCode="###0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +229,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -211,6 +241,7 @@
       <sz val="9"/>
       <color indexed="60"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -256,6 +287,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -390,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,9 +471,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -440,9 +482,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,11 +529,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{CE735289-11AA-4A6A-B54E-92A285EB3C55}"/>
-    <cellStyle name="Normal_Nombre des grossesses" xfId="2" xr:uid="{CDC8A013-013C-410C-B40A-48A645B2EAB3}"/>
+    <cellStyle name="Normal_Feuil1" xfId="1"/>
+    <cellStyle name="Normal_Nombre des grossesses" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,7 +563,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -524,6 +575,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -549,7 +601,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -724,6 +776,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -749,12 +802,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -762,7 +816,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -786,7 +839,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1659,14 +1712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -1675,10 +1728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,14 +1802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0430A6C6-5951-4445-AB23-7B404C08D778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
@@ -1769,10 +1822,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>768</v>
       </c>
       <c r="D3">
@@ -1784,7 +1837,7 @@
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>33.24</v>
       </c>
       <c r="D4">
@@ -1796,7 +1849,7 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>22</v>
       </c>
     </row>
@@ -1804,7 +1857,7 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>29</v>
       </c>
     </row>
@@ -1812,7 +1865,7 @@
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>11.76</v>
       </c>
     </row>
@@ -1820,7 +1873,7 @@
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>21</v>
       </c>
     </row>
@@ -1828,7 +1881,7 @@
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>219</v>
       </c>
     </row>
@@ -1836,7 +1889,7 @@
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>533</v>
       </c>
     </row>
@@ -1844,7 +1897,7 @@
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1852,7 +1905,7 @@
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>81</v>
       </c>
     </row>
@@ -1860,7 +1913,7 @@
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>23.9</v>
       </c>
     </row>
@@ -1868,7 +1921,7 @@
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>29.1</v>
       </c>
     </row>
@@ -1876,7 +1929,7 @@
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>40.49</v>
       </c>
     </row>
@@ -1886,14 +1939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E4056B-3F3E-4F04-BE03-CC1284ACDF06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="B3:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -1901,294 +1954,294 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="2:6" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="2:6" s="20" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>111</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>14.453125</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>14.453125</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>135</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>17.578125</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>32.03125</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>103</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>13.411458333333334</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>45.442708333333336</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>75</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>9.765625</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>55.208333333333336</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>68</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>8.8541666666666661</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>64.0625</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>57</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>7.421875</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>71.484375</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>50</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>6.510416666666667</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>77.994791666666671</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>45</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>5.859375</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>83.854166666666671</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>38</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>4.947916666666667</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>88.802083333333329</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>28</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>3.6458333333333335</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>92.447916666666671</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>24</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>3.125</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>95.572916666666671</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>11</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>1.4322916666666667</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>97.005208333333329</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>9</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <v>1.171875</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>98.177083333333329</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>10</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>1.3020833333333333</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>99.479166666666671</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>0.26041666666666669</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>99.739583333333329</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>1</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>0.13020833333333334</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>99.869791666666671</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>1</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>0.13020833333333334</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="26">
         <v>100</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>768</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <v>100</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2202,96 +2255,96 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E818CD6D-0F7B-442A-8032-8F4133F7E38E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>102</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>179</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>472</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2305,4 +2358,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="B2" s="35">
+        <v>0.80520000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>